--- a/Teste/1.xlsx
+++ b/Teste/1.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Desktop\Thesis\Teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Roll" sheetId="1" r:id="rId1"/>
     <sheet name="Tap" sheetId="2" r:id="rId2"/>
-    <sheet name="Folha1" sheetId="3" r:id="rId3"/>
+    <sheet name="Interrupt" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6458,7 +6457,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Folha1!$C$2</c:f>
+              <c:f>Interrupt!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6493,7 +6492,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$B$3:$B$22</c:f>
+              <c:f>Interrupt!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -6562,7 +6561,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$C$3:$C$22</c:f>
+              <c:f>Interrupt!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -6641,7 +6640,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Folha1!$D$2</c:f>
+              <c:f>Interrupt!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6676,7 +6675,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$B$3:$B$22</c:f>
+              <c:f>Interrupt!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -6745,7 +6744,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$D$3:$D$22</c:f>
+              <c:f>Interrupt!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -6824,7 +6823,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Folha1!$E$2</c:f>
+              <c:f>Interrupt!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6859,7 +6858,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$B$3:$B$22</c:f>
+              <c:f>Interrupt!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -6928,7 +6927,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$E$3:$E$22</c:f>
+              <c:f>Interrupt!$E$3:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -11437,8 +11436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13567,8 +13566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Teste/1.xlsx
+++ b/Teste/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Roll" sheetId="1" r:id="rId1"/>
@@ -6203,8 +6203,8 @@
         <c:axId val="324190872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="600"/>
-          <c:min val="450"/>
+          <c:max val="545"/>
+          <c:min val="525"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6262,7 +6262,7 @@
         <c:crossAx val="418443880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="50"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="418443880"/>
@@ -7016,6 +7016,7 @@
         <c:axId val="342917936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8928,15 +8929,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8971,13 +8972,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -11436,8 +11437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E152"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13566,7 +13567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
